--- a/Src/church Application/memberDetail.xlsx
+++ b/Src/church Application/memberDetail.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="1170" activeTab="2"/>
+    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="1170" tabRatio="779" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Church_MemberDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="Church_BankDetail" sheetId="2" r:id="rId2"/>
+    <sheet name="Church_OfferingDetail" sheetId="3" r:id="rId3"/>
+    <sheet name="Church_LoginDetail" sheetId="4" r:id="rId4"/>
+    <sheet name="Church_FormDetail" sheetId="5" r:id="rId5"/>
+    <sheet name="Church_AuctionType_Detail" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5934" uniqueCount="666">
   <si>
     <t>MemberId</t>
   </si>
@@ -1954,6 +1957,66 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Bank_id</t>
+  </si>
+  <si>
+    <t>Bank_name</t>
+  </si>
+  <si>
+    <t>Offering_id</t>
+  </si>
+  <si>
+    <t>Offername</t>
+  </si>
+  <si>
+    <t>Login_id</t>
+  </si>
+  <si>
+    <t>Login_type</t>
+  </si>
+  <si>
+    <t>Login_name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Form_id</t>
+  </si>
+  <si>
+    <t>Form_Name</t>
+  </si>
+  <si>
+    <t>Subscription Card</t>
+  </si>
+  <si>
+    <t>Rew. House Visit</t>
+  </si>
+  <si>
+    <t>Harvest Due</t>
+  </si>
+  <si>
+    <t>Auction Due</t>
+  </si>
+  <si>
+    <t>Auction_id</t>
+  </si>
+  <si>
+    <t>Auction_Name</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>Sunday Auction</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2355,7 @@
   <dimension ref="A1:M532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M532"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24089,819 +24152,827 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B101"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="60">
-      <c r="A1" s="2">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75">
-      <c r="A2" s="2">
+    <row r="3" spans="1:2" ht="75">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="2">
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="2">
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="75">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="2">
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="2">
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="2">
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="2">
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="2">
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="75">
-      <c r="A22" s="2">
+    <row r="23" spans="1:2" ht="75">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="2">
+    <row r="24" spans="1:2" ht="60">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="2">
+    <row r="29" spans="1:2" ht="75">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="2">
+    <row r="31" spans="1:2" ht="90">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="2">
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="2">
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
       <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="2">
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
       <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="75">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="2">
+    <row r="42" spans="1:2" ht="45">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="2">
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="60">
-      <c r="A45" s="2">
+    <row r="46" spans="1:2" ht="60">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="90">
-      <c r="A46" s="2">
+    <row r="47" spans="1:2" ht="90">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="2">
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>588</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
       <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="2">
+    <row r="51" spans="1:2" ht="60">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75">
       <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="75">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="105">
-      <c r="A55" s="2">
+    <row r="56" spans="1:2" ht="105">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="2">
+    <row r="57" spans="1:2" ht="60">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="2">
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="75">
-      <c r="A58" s="2">
+    <row r="59" spans="1:2" ht="75">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="45">
-      <c r="A59" s="2">
+    <row r="60" spans="1:2" ht="45">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="2">
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="45">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
       <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="2">
+    <row r="64" spans="1:2" ht="60">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="2">
+    <row r="65" spans="1:2" ht="75">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="60">
-      <c r="A65" s="2">
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="2">
+    <row r="67" spans="1:2" ht="45">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="2">
+    <row r="68" spans="1:2" ht="60">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>608</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45">
       <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="60">
-      <c r="A70" s="2">
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="2">
+    <row r="72" spans="1:2" ht="30">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="90">
-      <c r="A72" s="2">
+    <row r="73" spans="1:2" ht="90">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="120">
-      <c r="A73" s="2">
+    <row r="74" spans="1:2" ht="120">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="60">
       <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="60">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="105">
-      <c r="A76" s="2">
+    <row r="77" spans="1:2" ht="105">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="90">
-      <c r="A77" s="2">
+    <row r="78" spans="1:2" ht="90">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="75">
-      <c r="A78" s="2">
+    <row r="79" spans="1:2" ht="75">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="2">
+    <row r="80" spans="1:2" ht="60">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
       <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="90">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105">
-      <c r="A82" s="2">
+    <row r="83" spans="1:2" ht="105">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="90">
-      <c r="A83" s="2">
+    <row r="84" spans="1:2" ht="90">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="120">
-      <c r="A84" s="2">
+    <row r="85" spans="1:2" ht="120">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="75">
-      <c r="A85" s="2">
+    <row r="86" spans="1:2" ht="75">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="105">
-      <c r="A86" s="2">
+    <row r="87" spans="1:2" ht="105">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>627</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="60">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
       <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="60">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="75">
-      <c r="A89" s="2">
+    <row r="90" spans="1:2" ht="75">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="90">
-      <c r="A90" s="2">
+    <row r="91" spans="1:2" ht="90">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="105">
-      <c r="A91" s="2">
+    <row r="92" spans="1:2" ht="105">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="90">
-      <c r="A92" s="2">
+    <row r="93" spans="1:2" ht="90">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="135">
-      <c r="A93" s="2">
+    <row r="94" spans="1:2" ht="135">
+      <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="90">
-      <c r="A94" s="2">
+    <row r="95" spans="1:2" ht="90">
+      <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30">
-      <c r="A96" s="2">
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="45">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
       <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45">
+      <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30">
-      <c r="A99" s="2">
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="45">
-      <c r="A100" s="2">
+    <row r="101" spans="1:2" ht="45">
+      <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" s="2" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -24912,20 +24983,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="2">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
@@ -24933,7 +25124,62 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>643</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30">
@@ -24941,23 +25187,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/Src/church Application/memberDetail.xlsx
+++ b/Src/church Application/memberDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="1170" tabRatio="779" activeTab="5"/>
+    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="1170" tabRatio="779" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Church_MemberDetail" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Church_LoginDetail" sheetId="4" r:id="rId4"/>
     <sheet name="Church_FormDetail" sheetId="5" r:id="rId5"/>
     <sheet name="Church_AuctionType_Detail" sheetId="6" r:id="rId6"/>
+    <sheet name="Church_GeneralExpenditureType_D" sheetId="7" r:id="rId7"/>
+    <sheet name="Church_MissionExpenditureType_D" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5934" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5955" uniqueCount="685">
   <si>
     <t>MemberId</t>
   </si>
@@ -2017,6 +2019,63 @@
   </si>
   <si>
     <t>Sunday Auction</t>
+  </si>
+  <si>
+    <t>Expenditure_id</t>
+  </si>
+  <si>
+    <t>Expenditure_Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>E.B Church</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>MissionExprnditure_Id</t>
+  </si>
+  <si>
+    <t>MissionExpenditure_Name</t>
+  </si>
+  <si>
+    <t>Mens Fellow Ship</t>
+  </si>
+  <si>
+    <t>Youth Fellow Ship</t>
+  </si>
+  <si>
+    <t>Sunday School</t>
+  </si>
+  <si>
+    <t>Education Fund</t>
+  </si>
+  <si>
+    <t>Poor Fund</t>
+  </si>
+  <si>
+    <t>I.M.S</t>
+  </si>
+  <si>
+    <t>N.M.S</t>
+  </si>
+  <si>
+    <t>Bible Society</t>
+  </si>
+  <si>
+    <t>D.B.M</t>
+  </si>
+  <si>
+    <t>Gospel Work/ Meetings</t>
   </si>
 </sst>
 </file>
@@ -25160,7 +25219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -25193,4 +25252,186 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Src/church Application/memberDetail.xlsx
+++ b/Src/church Application/memberDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="1170" tabRatio="779" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="1170" tabRatio="779" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Church_MemberDetail" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Church_AuctionType_Detail" sheetId="6" r:id="rId6"/>
     <sheet name="Church_GeneralExpenditureType_D" sheetId="7" r:id="rId7"/>
     <sheet name="Church_MissionExpenditureType_D" sheetId="8" r:id="rId8"/>
+    <sheet name="Church_AccountType_D" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5955" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5960" uniqueCount="690">
   <si>
     <t>MemberId</t>
   </si>
@@ -2076,6 +2077,21 @@
   </si>
   <si>
     <t>Gospel Work/ Meetings</t>
+  </si>
+  <si>
+    <t>Account_id</t>
+  </si>
+  <si>
+    <t>Account_Name</t>
+  </si>
+  <si>
+    <t>General Account</t>
+  </si>
+  <si>
+    <t>Mission Account</t>
+  </si>
+  <si>
+    <t>Womens Fellow Ship</t>
   </si>
 </sst>
 </file>
@@ -25321,7 +25337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -25434,4 +25450,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Src/church Application/memberDetail.xlsx
+++ b/Src/church Application/memberDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="1170" tabRatio="779" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="90" yWindow="-75" windowWidth="2040" windowHeight="1170" tabRatio="779" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Church_MemberDetail" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5960" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="696">
   <si>
     <t>MemberId</t>
   </si>
@@ -2092,6 +2092,24 @@
   </si>
   <si>
     <t>Womens Fellow Ship</t>
+  </si>
+  <si>
+    <t>General Expenditure</t>
+  </si>
+  <si>
+    <t>Mission Expenditure</t>
+  </si>
+  <si>
+    <t>General Offering</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Inicial Harvest</t>
+  </si>
+  <si>
+    <t>Inicial Auction</t>
   </si>
 </sst>
 </file>
@@ -25178,10 +25196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25224,6 +25242,54 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -25335,10 +25401,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25433,17 +25499,9 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>672</v>
       </c>
     </row>
@@ -25456,7 +25514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
